--- a/ACCOUNT/Account__123456.xlsx
+++ b/ACCOUNT/Account__123456.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>BALANCE : 1300.0</t>
+          <t>BALANCE : 1399.0</t>
         </is>
       </c>
     </row>
@@ -566,6 +566,78 @@
       </c>
       <c r="D13" t="n">
         <v>1300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-21 18:54:23</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-21 18:54:59</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-21 19:28:05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-10-21 19:57:10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1399</v>
       </c>
     </row>
   </sheetData>

--- a/ACCOUNT/Account__123456.xlsx
+++ b/ACCOUNT/Account__123456.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>BALANCE : 1399.0</t>
+          <t>BALANCE : 6399.0</t>
         </is>
       </c>
     </row>
@@ -638,6 +638,24 @@
       </c>
       <c r="D17" t="n">
         <v>1399</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-10-22 11:56:47</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6399</v>
       </c>
     </row>
   </sheetData>

--- a/ACCOUNT/Account__123456.xlsx
+++ b/ACCOUNT/Account__123456.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>BALANCE : 6399.0</t>
+          <t>BALANCE : 6398.0</t>
         </is>
       </c>
     </row>
@@ -656,6 +656,24 @@
       </c>
       <c r="D18" t="n">
         <v>6399</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-10-22 20:00:21</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6398</v>
       </c>
     </row>
   </sheetData>

--- a/ACCOUNT/Account__123456.xlsx
+++ b/ACCOUNT/Account__123456.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>BALANCE : 6398.0</t>
+          <t>BALANCE : 0.0</t>
         </is>
       </c>
     </row>
@@ -674,6 +674,96 @@
       </c>
       <c r="D19" t="n">
         <v>6398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-10-22 23:48:10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-10-23 22:15:15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10006399</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-10-23 22:15:24</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9906399</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-10-23 22:17:50</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8906399</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-10-23 22:18:24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>8906399</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
